--- a/fhir/observations-summary.xlsx
+++ b/fhir/observations-summary.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="23">
   <si>
     <t>Profile</t>
   </si>
@@ -45,6 +45,42 @@
   </si>
   <si>
     <t>Method</t>
+  </si>
+  <si>
+    <t>ehealth-observation-wound-dimensions</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>LOINC#72287-6</t>
+  </si>
+  <si>
+    <t>dateTime, Period, Timing, instant</t>
+  </si>
+  <si>
+    <t>Quantity, CodeableConcept</t>
+  </si>
+  <si>
+    <t>optional</t>
+  </si>
+  <si>
+    <t>LOINC#39126-8</t>
+  </si>
+  <si>
+    <t>Quantity</t>
+  </si>
+  <si>
+    <t>LOINC#39125-0</t>
+  </si>
+  <si>
+    <t>LOINC#39127-6</t>
+  </si>
+  <si>
+    <t>LOINC#89260-4</t>
+  </si>
+  <si>
+    <t>LOINC#94083-3</t>
   </si>
 </sst>
 </file>
@@ -178,7 +214,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:K1"/>
+  <dimension ref="A1:K7"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -219,6 +255,216 @@
         <v>10</v>
       </c>
     </row>
+    <row r="2">
+      <c r="A2" t="s" s="2">
+        <v>11</v>
+      </c>
+      <c r="B2" t="s" s="2">
+        <v>11</v>
+      </c>
+      <c r="C2" t="s" s="2">
+        <v>12</v>
+      </c>
+      <c r="D2" t="s" s="2">
+        <v>12</v>
+      </c>
+      <c r="E2" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="F2" t="s" s="2">
+        <v>12</v>
+      </c>
+      <c r="G2" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="H2" t="s" s="2">
+        <v>15</v>
+      </c>
+      <c r="I2" t="s" s="2">
+        <v>16</v>
+      </c>
+      <c r="J2" t="s" s="2">
+        <v>12</v>
+      </c>
+      <c r="K2" t="s" s="2">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s" s="2">
+        <v>12</v>
+      </c>
+      <c r="B3" t="s" s="2">
+        <v>11</v>
+      </c>
+      <c r="C3" t="s" s="2">
+        <v>12</v>
+      </c>
+      <c r="D3" t="s" s="2">
+        <v>12</v>
+      </c>
+      <c r="E3" t="s" s="2">
+        <v>17</v>
+      </c>
+      <c r="F3" t="s" s="2">
+        <v>12</v>
+      </c>
+      <c r="G3" t="s" s="2">
+        <v>12</v>
+      </c>
+      <c r="H3" t="s" s="2">
+        <v>18</v>
+      </c>
+      <c r="I3" t="s" s="2">
+        <v>16</v>
+      </c>
+      <c r="J3" t="s" s="2">
+        <v>12</v>
+      </c>
+      <c r="K3" t="s" s="2">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s" s="2">
+        <v>12</v>
+      </c>
+      <c r="B4" t="s" s="2">
+        <v>11</v>
+      </c>
+      <c r="C4" t="s" s="2">
+        <v>12</v>
+      </c>
+      <c r="D4" t="s" s="2">
+        <v>12</v>
+      </c>
+      <c r="E4" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="F4" t="s" s="2">
+        <v>12</v>
+      </c>
+      <c r="G4" t="s" s="2">
+        <v>12</v>
+      </c>
+      <c r="H4" t="s" s="2">
+        <v>18</v>
+      </c>
+      <c r="I4" t="s" s="2">
+        <v>16</v>
+      </c>
+      <c r="J4" t="s" s="2">
+        <v>12</v>
+      </c>
+      <c r="K4" t="s" s="2">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="s" s="2">
+        <v>12</v>
+      </c>
+      <c r="B5" t="s" s="2">
+        <v>11</v>
+      </c>
+      <c r="C5" t="s" s="2">
+        <v>12</v>
+      </c>
+      <c r="D5" t="s" s="2">
+        <v>12</v>
+      </c>
+      <c r="E5" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="F5" t="s" s="2">
+        <v>12</v>
+      </c>
+      <c r="G5" t="s" s="2">
+        <v>12</v>
+      </c>
+      <c r="H5" t="s" s="2">
+        <v>18</v>
+      </c>
+      <c r="I5" t="s" s="2">
+        <v>16</v>
+      </c>
+      <c r="J5" t="s" s="2">
+        <v>12</v>
+      </c>
+      <c r="K5" t="s" s="2">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="s" s="2">
+        <v>12</v>
+      </c>
+      <c r="B6" t="s" s="2">
+        <v>11</v>
+      </c>
+      <c r="C6" t="s" s="2">
+        <v>12</v>
+      </c>
+      <c r="D6" t="s" s="2">
+        <v>12</v>
+      </c>
+      <c r="E6" t="s" s="2">
+        <v>21</v>
+      </c>
+      <c r="F6" t="s" s="2">
+        <v>12</v>
+      </c>
+      <c r="G6" t="s" s="2">
+        <v>12</v>
+      </c>
+      <c r="H6" t="s" s="2">
+        <v>18</v>
+      </c>
+      <c r="I6" t="s" s="2">
+        <v>16</v>
+      </c>
+      <c r="J6" t="s" s="2">
+        <v>12</v>
+      </c>
+      <c r="K6" t="s" s="2">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="s" s="2">
+        <v>12</v>
+      </c>
+      <c r="B7" t="s" s="2">
+        <v>11</v>
+      </c>
+      <c r="C7" t="s" s="2">
+        <v>12</v>
+      </c>
+      <c r="D7" t="s" s="2">
+        <v>12</v>
+      </c>
+      <c r="E7" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="F7" t="s" s="2">
+        <v>12</v>
+      </c>
+      <c r="G7" t="s" s="2">
+        <v>12</v>
+      </c>
+      <c r="H7" t="s" s="2">
+        <v>18</v>
+      </c>
+      <c r="I7" t="s" s="2">
+        <v>16</v>
+      </c>
+      <c r="J7" t="s" s="2">
+        <v>12</v>
+      </c>
+      <c r="K7" t="s" s="2">
+        <v>12</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
